--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -1949,8 +1949,8 @@
   <sheetPr/>
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="B218" sqref="B218"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="F235" sqref="F235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:4">
+    <row r="230" ht="17.6" spans="1:3">
       <c r="A230" s="5" t="s">
         <v>259</v>
       </c>
@@ -4069,9 +4069,6 @@
       </c>
       <c r="C230" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D230" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="231" ht="17.6" spans="1:4">
@@ -4088,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="18" spans="1:4">
+    <row r="232" ht="18" spans="1:3">
       <c r="A232" s="5" t="s">
         <v>264</v>
       </c>
@@ -4098,11 +4095,8 @@
       <c r="C232" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D232" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" ht="17.6" spans="1:4">
+    </row>
+    <row r="233" ht="17.6" spans="1:3">
       <c r="A233" s="5" t="s">
         <v>264</v>
       </c>
@@ -4112,11 +4106,8 @@
       <c r="C233" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D233" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" ht="17.6" spans="1:4">
+    </row>
+    <row r="234" ht="17.6" spans="1:3">
       <c r="A234" s="5" t="s">
         <v>264</v>
       </c>
@@ -4125,9 +4116,6 @@
       </c>
       <c r="C234" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="D234" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="235" ht="17.6" spans="1:4">
@@ -4172,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:4">
+    <row r="238" ht="17.6" spans="1:3">
       <c r="A238" s="5" t="s">
         <v>274</v>
       </c>
@@ -4181,9 +4169,6 @@
       </c>
       <c r="C238" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="D238" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="239" ht="17.6" spans="1:3">
@@ -4248,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" ht="17.6" spans="1:4">
+    <row r="244" ht="17.6" spans="1:3">
       <c r="A244" s="5" t="s">
         <v>288</v>
       </c>
@@ -4257,9 +4242,6 @@
       </c>
       <c r="C244" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="D244" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="245" ht="17.6" spans="1:4">
@@ -4276,7 +4258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="18" spans="1:4">
+    <row r="246" ht="18" spans="1:3">
       <c r="A246" s="5" t="s">
         <v>290</v>
       </c>
@@ -4285,9 +4267,6 @@
       </c>
       <c r="C246" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="D246" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="247" ht="18" spans="1:4">
@@ -4304,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" ht="17.6" spans="1:4">
+    <row r="248" ht="17.6" spans="1:3">
       <c r="A248" s="5" t="s">
         <v>294</v>
       </c>
@@ -4314,11 +4293,8 @@
       <c r="C248" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D248" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" ht="17.6" spans="1:4">
+    </row>
+    <row r="249" ht="17.6" spans="1:3">
       <c r="A249" s="5" t="s">
         <v>294</v>
       </c>
@@ -4327,9 +4303,6 @@
       </c>
       <c r="C249" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="D249" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16660"/>
+    <workbookView windowWidth="28000" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -926,13 +926,19 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1449,174 +1455,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1949,2360 +1958,2408 @@
   <sheetPr/>
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="F235" sqref="F235"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="15.2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="42.5714285714286" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="26.75" style="1"/>
+    <col min="1" max="1" width="42.5714285714286" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="26.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" s="1" customFormat="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" s="1" customFormat="1" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+    <row r="12" s="1" customFormat="1" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" s="1" customFormat="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+    <row r="14" s="1" customFormat="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" s="1" customFormat="1" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+    <row r="17" s="1" customFormat="1" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+    <row r="19" s="1" customFormat="1" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+    <row r="21" s="1" customFormat="1" spans="1:3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
+    <row r="22" s="1" customFormat="1" spans="1:3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
+    <row r="23" s="1" customFormat="1" spans="1:3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="3" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="3" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3" t="s">
+    <row r="45" s="1" customFormat="1" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="3" t="s">
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
+    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
+    <row r="48" s="1" customFormat="1" spans="1:3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="3" t="s">
+    <row r="49" s="1" customFormat="1" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="3" t="s">
+    <row r="51" s="1" customFormat="1" spans="1:3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="3" t="s">
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
+    <row r="53" s="1" customFormat="1" spans="1:3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="3" t="s">
+    <row r="54" s="1" customFormat="1" spans="1:3">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="3" t="s">
+    <row r="55" s="1" customFormat="1" spans="1:3">
+      <c r="A55" s="3"/>
+      <c r="B55" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
+    <row r="56" s="1" customFormat="1" spans="1:3">
+      <c r="A56" s="3"/>
+      <c r="B56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3" t="s">
+    <row r="57" s="1" customFormat="1" spans="1:3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="3" t="s">
+    <row r="58" s="1" customFormat="1" spans="1:3">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="3" t="s">
+    <row r="59" s="1" customFormat="1" spans="1:3">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="3" t="s">
+    <row r="60" s="1" customFormat="1" spans="1:3">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="3" t="s">
+    <row r="61" s="1" customFormat="1" spans="1:3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="3" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:3">
+      <c r="A62" s="3"/>
+      <c r="B62" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
-      <c r="B63" s="3" t="s">
+    <row r="63" s="1" customFormat="1" spans="1:3">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="3" t="s">
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+    <row r="65" s="1" customFormat="1" spans="1:3">
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="3" t="s">
+    <row r="66" s="1" customFormat="1" spans="1:3">
+      <c r="A66" s="3"/>
+      <c r="B66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="3" t="s">
+    <row r="67" s="1" customFormat="1" spans="1:3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" s="1" customFormat="1" spans="1:3">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="3" t="s">
+    <row r="69" s="1" customFormat="1" spans="1:3">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="3" t="s">
+    <row r="70" s="1" customFormat="1" spans="1:3">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2"/>
-      <c r="B71" s="3" t="s">
+    <row r="71" s="1" customFormat="1" spans="1:3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+    <row r="72" s="1" customFormat="1" spans="1:3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
+    <row r="73" s="1" customFormat="1" spans="1:3">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="3" t="s">
+    <row r="74" s="1" customFormat="1" spans="1:3">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2"/>
-      <c r="B75" s="3" t="s">
+    <row r="75" s="1" customFormat="1" spans="1:3">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
+    <row r="76" s="1" customFormat="1" spans="1:3">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2"/>
-      <c r="B77" s="3" t="s">
+    <row r="77" s="1" customFormat="1" spans="1:3">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="3" t="s">
+    <row r="78" s="1" customFormat="1" spans="1:3">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="2"/>
-      <c r="B79" s="3" t="s">
+    <row r="79" s="1" customFormat="1" spans="1:3">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="2"/>
-      <c r="B80" s="3" t="s">
+    <row r="80" s="1" customFormat="1" spans="1:3">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2"/>
-      <c r="B81" s="3" t="s">
+    <row r="81" s="1" customFormat="1" spans="1:3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="3" t="s">
+    <row r="82" s="1" customFormat="1" spans="1:3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2"/>
-      <c r="B83" s="3" t="s">
+    <row r="83" s="1" customFormat="1" spans="1:3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
+    <row r="84" s="1" customFormat="1" spans="1:3">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2"/>
-      <c r="B85" s="3" t="s">
+    <row r="85" s="1" customFormat="1" spans="1:3">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2"/>
-      <c r="B86" s="3" t="s">
+    <row r="86" s="1" customFormat="1" spans="1:3">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2"/>
-      <c r="B87" s="3" t="s">
+    <row r="87" s="1" customFormat="1" spans="1:3">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2"/>
-      <c r="B88" s="3" t="s">
+    <row r="88" s="1" customFormat="1" spans="1:3">
+      <c r="A88" s="3"/>
+      <c r="B88" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2"/>
-      <c r="B89" s="3" t="s">
+    <row r="89" s="1" customFormat="1" spans="1:3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2"/>
-      <c r="B90" s="3" t="s">
+    <row r="90" s="1" customFormat="1" spans="1:3">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2"/>
-      <c r="B91" s="3" t="s">
+    <row r="91" s="1" customFormat="1" spans="1:3">
+      <c r="A91" s="3"/>
+      <c r="B91" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2"/>
-      <c r="B92" s="3" t="s">
+    <row r="92" s="1" customFormat="1" spans="1:3">
+      <c r="A92" s="3"/>
+      <c r="B92" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2"/>
-      <c r="B93" s="3" t="s">
+    <row r="93" s="1" customFormat="1" spans="1:3">
+      <c r="A93" s="3"/>
+      <c r="B93" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2"/>
-      <c r="B94" s="3" t="s">
+    <row r="94" s="1" customFormat="1" spans="1:3">
+      <c r="A94" s="3"/>
+      <c r="B94" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2"/>
-      <c r="B95" s="3" t="s">
+    <row r="95" s="1" customFormat="1" spans="1:3">
+      <c r="A95" s="3"/>
+      <c r="B95" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="3" t="s">
+    <row r="96" s="1" customFormat="1" spans="1:3">
+      <c r="A96" s="3"/>
+      <c r="B96" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2"/>
-      <c r="B97" s="3" t="s">
+    <row r="97" s="1" customFormat="1" spans="1:3">
+      <c r="A97" s="3"/>
+      <c r="B97" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="3" t="s">
+    <row r="98" s="1" customFormat="1" spans="1:3">
+      <c r="A98" s="3"/>
+      <c r="B98" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2"/>
-      <c r="B99" s="3" t="s">
+    <row r="99" s="1" customFormat="1" spans="1:3">
+      <c r="A99" s="3"/>
+      <c r="B99" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="3" t="s">
+    <row r="100" s="1" customFormat="1" spans="1:3">
+      <c r="A100" s="3"/>
+      <c r="B100" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2"/>
-      <c r="B101" s="3" t="s">
+    <row r="101" s="1" customFormat="1" spans="1:3">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2"/>
-      <c r="B102" s="3" t="s">
+    <row r="102" s="1" customFormat="1" spans="1:3">
+      <c r="A102" s="3"/>
+      <c r="B102" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2"/>
-      <c r="B103" s="3" t="s">
+    <row r="103" s="1" customFormat="1" spans="1:3">
+      <c r="A103" s="3"/>
+      <c r="B103" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="3" t="s">
+    <row r="104" s="1" customFormat="1" spans="1:3">
+      <c r="A104" s="3"/>
+      <c r="B104" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2"/>
-      <c r="B105" s="3" t="s">
+    <row r="105" s="1" customFormat="1" spans="1:3">
+      <c r="A105" s="3"/>
+      <c r="B105" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2"/>
-      <c r="B106" s="3" t="s">
+    <row r="106" s="1" customFormat="1" spans="1:3">
+      <c r="A106" s="3"/>
+      <c r="B106" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2"/>
-      <c r="B107" s="3" t="s">
+    <row r="107" s="1" customFormat="1" spans="1:3">
+      <c r="A107" s="3"/>
+      <c r="B107" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2"/>
-      <c r="B108" s="3" t="s">
+    <row r="108" s="1" customFormat="1" spans="1:3">
+      <c r="A108" s="3"/>
+      <c r="B108" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2"/>
-      <c r="B109" s="3" t="s">
+    <row r="109" s="1" customFormat="1" spans="1:3">
+      <c r="A109" s="3"/>
+      <c r="B109" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3" t="s">
+    <row r="110" s="1" customFormat="1" spans="1:3">
+      <c r="A110" s="3"/>
+      <c r="B110" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2"/>
-      <c r="B111" s="3" t="s">
+    <row r="111" s="1" customFormat="1" spans="1:3">
+      <c r="A111" s="3"/>
+      <c r="B111" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="2"/>
-      <c r="B112" s="3" t="s">
+    <row r="112" s="1" customFormat="1" spans="1:3">
+      <c r="A112" s="3"/>
+      <c r="B112" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="3" t="s">
+    <row r="113" s="1" customFormat="1" spans="1:3">
+      <c r="A113" s="3"/>
+      <c r="B113" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2"/>
-      <c r="B114" s="3" t="s">
+    <row r="114" s="1" customFormat="1" spans="1:3">
+      <c r="A114" s="3"/>
+      <c r="B114" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="3" t="s">
+    <row r="115" s="1" customFormat="1" spans="1:3">
+      <c r="A115" s="3"/>
+      <c r="B115" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2"/>
-      <c r="B116" s="3" t="s">
+    <row r="116" s="1" customFormat="1" spans="1:3">
+      <c r="A116" s="3"/>
+      <c r="B116" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2"/>
-      <c r="B117" s="3" t="s">
+    <row r="117" s="1" customFormat="1" spans="1:3">
+      <c r="A117" s="3"/>
+      <c r="B117" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2"/>
-      <c r="B118" s="3" t="s">
+    <row r="118" s="1" customFormat="1" spans="1:3">
+      <c r="A118" s="3"/>
+      <c r="B118" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2"/>
-      <c r="B119" s="3" t="s">
+    <row r="119" s="1" customFormat="1" spans="1:3">
+      <c r="A119" s="3"/>
+      <c r="B119" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2"/>
-      <c r="B120" s="3" t="s">
+    <row r="120" s="1" customFormat="1" spans="1:3">
+      <c r="A120" s="3"/>
+      <c r="B120" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2"/>
-      <c r="B121" s="3" t="s">
+    <row r="121" s="1" customFormat="1" spans="1:3">
+      <c r="A121" s="3"/>
+      <c r="B121" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2"/>
-      <c r="B122" s="3" t="s">
+    <row r="122" s="1" customFormat="1" spans="1:3">
+      <c r="A122" s="3"/>
+      <c r="B122" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2"/>
-      <c r="B123" s="3" t="s">
+    <row r="123" s="1" customFormat="1" spans="1:3">
+      <c r="A123" s="3"/>
+      <c r="B123" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2"/>
-      <c r="B124" s="3" t="s">
+    <row r="124" s="1" customFormat="1" spans="1:3">
+      <c r="A124" s="3"/>
+      <c r="B124" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2"/>
-      <c r="B125" s="3" t="s">
+    <row r="125" s="1" customFormat="1" spans="1:3">
+      <c r="A125" s="3"/>
+      <c r="B125" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2"/>
-      <c r="B126" s="3" t="s">
+    <row r="126" s="1" customFormat="1" spans="1:3">
+      <c r="A126" s="3"/>
+      <c r="B126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2"/>
-      <c r="B127" s="3" t="s">
+    <row r="127" s="1" customFormat="1" spans="1:3">
+      <c r="A127" s="3"/>
+      <c r="B127" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2"/>
-      <c r="B128" s="3" t="s">
+    <row r="128" s="1" customFormat="1" spans="1:3">
+      <c r="A128" s="3"/>
+      <c r="B128" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2"/>
-      <c r="B129" s="3" t="s">
+    <row r="129" s="1" customFormat="1" spans="1:3">
+      <c r="A129" s="3"/>
+      <c r="B129" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="3" t="s">
+    <row r="130" s="1" customFormat="1" spans="1:3">
+      <c r="A130" s="3"/>
+      <c r="B130" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2"/>
-      <c r="B131" s="3" t="s">
+    <row r="131" s="1" customFormat="1" spans="1:3">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2"/>
-      <c r="B132" s="3" t="s">
+    <row r="132" s="1" customFormat="1" spans="1:3">
+      <c r="A132" s="3"/>
+      <c r="B132" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2"/>
-      <c r="B133" s="3" t="s">
+    <row r="133" s="1" customFormat="1" spans="1:3">
+      <c r="A133" s="3"/>
+      <c r="B133" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2"/>
-      <c r="B134" s="3" t="s">
+      <c r="C133" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="1" spans="1:3">
+      <c r="A134" s="3"/>
+      <c r="B134" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2"/>
-      <c r="B135" s="3" t="s">
+      <c r="C134" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="1" spans="1:3">
+      <c r="A135" s="3"/>
+      <c r="B135" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2"/>
-      <c r="B136" s="3" t="s">
+      <c r="C135" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="1" spans="1:3">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2"/>
-      <c r="B137" s="3" t="s">
+      <c r="C136" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="1" spans="1:3">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2"/>
-      <c r="B138" s="3" t="s">
+      <c r="C137" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="1" spans="1:3">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2"/>
-      <c r="B139" s="3" t="s">
+      <c r="C138" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="1" spans="1:3">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2"/>
-      <c r="B140" s="3" t="s">
+      <c r="C139" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="1" spans="1:3">
+      <c r="A140" s="3"/>
+      <c r="B140" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2"/>
-      <c r="B141" s="3" t="s">
+      <c r="C140" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="1" spans="1:3">
+      <c r="A141" s="3"/>
+      <c r="B141" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="3" t="s">
+      <c r="C141" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="1" spans="1:3">
+      <c r="A142" s="3"/>
+      <c r="B142" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2"/>
-      <c r="B143" s="3" t="s">
+      <c r="C142" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="1" spans="1:3">
+      <c r="A143" s="3"/>
+      <c r="B143" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2"/>
-      <c r="B144" s="3" t="s">
+      <c r="C143" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="1" spans="1:3">
+      <c r="A144" s="3"/>
+      <c r="B144" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2"/>
-      <c r="B145" s="3" t="s">
+      <c r="C144" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="1" spans="1:3">
+      <c r="A145" s="3"/>
+      <c r="B145" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2"/>
-      <c r="B146" s="3" t="s">
+      <c r="C145" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="1" spans="1:3">
+      <c r="A146" s="3"/>
+      <c r="B146" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2"/>
-      <c r="B147" s="3" t="s">
+      <c r="C146" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="1" spans="1:3">
+      <c r="A147" s="3"/>
+      <c r="B147" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2"/>
-      <c r="B148" s="3" t="s">
+      <c r="C147" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="1" spans="1:3">
+      <c r="A148" s="3"/>
+      <c r="B148" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2"/>
-      <c r="B149" s="3" t="s">
+      <c r="C148" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="1" spans="1:3">
+      <c r="A149" s="3"/>
+      <c r="B149" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2"/>
-      <c r="B150" s="3" t="s">
+      <c r="C149" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="1" spans="1:3">
+      <c r="A150" s="3"/>
+      <c r="B150" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2"/>
-      <c r="B151" s="3" t="s">
+      <c r="C150" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="1" spans="1:3">
+      <c r="A151" s="3"/>
+      <c r="B151" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2"/>
-      <c r="B152" s="3" t="s">
+      <c r="C151" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="1" spans="1:3">
+      <c r="A152" s="3"/>
+      <c r="B152" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2"/>
-      <c r="B153" s="3" t="s">
+      <c r="C152" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="1" spans="1:3">
+      <c r="A153" s="3"/>
+      <c r="B153" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2"/>
-      <c r="B154" s="3" t="s">
+      <c r="C153" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="1" spans="1:3">
+      <c r="A154" s="3"/>
+      <c r="B154" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" s="2"/>
-      <c r="B155" s="3" t="s">
+      <c r="C154" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="1" spans="1:3">
+      <c r="A155" s="3"/>
+      <c r="B155" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="2"/>
-      <c r="B156" s="3" t="s">
+      <c r="C155" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="1" spans="1:3">
+      <c r="A156" s="3"/>
+      <c r="B156" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" s="2"/>
-      <c r="B157" s="3" t="s">
+      <c r="C156" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="1" spans="1:3">
+      <c r="A157" s="3"/>
+      <c r="B157" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="2"/>
-      <c r="B158" s="3" t="s">
+      <c r="C157" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="1" spans="1:3">
+      <c r="A158" s="3"/>
+      <c r="B158" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="2"/>
-      <c r="B159" s="3" t="s">
+      <c r="C158" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="1" spans="1:3">
+      <c r="A159" s="3"/>
+      <c r="B159" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" s="2"/>
-      <c r="B160" s="3" t="s">
+      <c r="C159" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="1" spans="1:3">
+      <c r="A160" s="3"/>
+      <c r="B160" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" s="2"/>
-      <c r="B161" s="3" t="s">
+      <c r="C160" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="1" spans="1:3">
+      <c r="A161" s="3"/>
+      <c r="B161" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="2"/>
-      <c r="B162" s="3" t="s">
+      <c r="C161" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="1" spans="1:3">
+      <c r="A162" s="3"/>
+      <c r="B162" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" s="2"/>
-      <c r="B163" s="3" t="s">
+      <c r="C162" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="1" spans="1:3">
+      <c r="A163" s="3"/>
+      <c r="B163" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" s="2"/>
-      <c r="B164" s="3" t="s">
+      <c r="C163" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="1" spans="1:3">
+      <c r="A164" s="3"/>
+      <c r="B164" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" s="2"/>
-      <c r="B165" s="3" t="s">
+      <c r="C164" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="1" spans="1:3">
+      <c r="A165" s="3"/>
+      <c r="B165" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" s="2"/>
-      <c r="B166" s="3" t="s">
+      <c r="C165" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="1" spans="1:3">
+      <c r="A166" s="3"/>
+      <c r="B166" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" s="2"/>
-      <c r="B167" s="3" t="s">
+      <c r="C166" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="1" spans="1:3">
+      <c r="A167" s="3"/>
+      <c r="B167" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" s="2"/>
-      <c r="B168" s="3" t="s">
+      <c r="C167" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="1" spans="1:3">
+      <c r="A168" s="3"/>
+      <c r="B168" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" s="2"/>
-      <c r="B169" s="3" t="s">
+      <c r="C168" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="1" spans="1:3">
+      <c r="A169" s="3"/>
+      <c r="B169" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" s="2"/>
-      <c r="B170" s="3" t="s">
+      <c r="C169" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="1" spans="1:3">
+      <c r="A170" s="3"/>
+      <c r="B170" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="2"/>
-      <c r="B171" s="3" t="s">
+      <c r="C170" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="1" spans="1:3">
+      <c r="A171" s="3"/>
+      <c r="B171" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" s="2"/>
-      <c r="B172" s="3" t="s">
+      <c r="C171" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="1" spans="1:3">
+      <c r="A172" s="3"/>
+      <c r="B172" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" s="2"/>
-      <c r="B173" s="3" t="s">
+      <c r="C172" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="1" spans="1:3">
+      <c r="A173" s="3"/>
+      <c r="B173" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" s="2"/>
-      <c r="B174" s="3" t="s">
+      <c r="C173" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="1" spans="1:3">
+      <c r="A174" s="3"/>
+      <c r="B174" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" s="2"/>
-      <c r="B175" s="3" t="s">
+      <c r="C174" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="1" spans="1:3">
+      <c r="A175" s="3"/>
+      <c r="B175" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C175" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" s="2"/>
-      <c r="B176" s="3" t="s">
+      <c r="C175" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="1" spans="1:3">
+      <c r="A176" s="3"/>
+      <c r="B176" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C176" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="2"/>
-      <c r="B177" s="3" t="s">
+      <c r="C176" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="1" spans="1:3">
+      <c r="A177" s="3"/>
+      <c r="B177" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C177" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="2"/>
-      <c r="B178" s="3" t="s">
+      <c r="C177" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="1" spans="1:3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="2"/>
-      <c r="B179" s="3" t="s">
+      <c r="C178" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="179" s="1" customFormat="1" spans="1:3">
+      <c r="A179" s="3"/>
+      <c r="B179" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C179" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="2"/>
-      <c r="B180" s="3" t="s">
+      <c r="C179" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="1" spans="1:3">
+      <c r="A180" s="3"/>
+      <c r="B180" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" s="2"/>
-      <c r="B181" s="3" t="s">
+      <c r="C180" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="1" spans="1:3">
+      <c r="A181" s="3"/>
+      <c r="B181" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C181" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" s="2"/>
-      <c r="B182" s="3" t="s">
+      <c r="C181" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="1" spans="1:3">
+      <c r="A182" s="3"/>
+      <c r="B182" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C182" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" s="2"/>
-      <c r="B183" s="3" t="s">
+      <c r="C182" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" spans="1:3">
+      <c r="A183" s="3"/>
+      <c r="B183" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C183" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" s="2"/>
-      <c r="B184" s="3" t="s">
+      <c r="C183" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="1" spans="1:3">
+      <c r="A184" s="3"/>
+      <c r="B184" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C184" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2"/>
-      <c r="B185" s="3" t="s">
+      <c r="C184" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="185" s="1" customFormat="1" spans="1:3">
+      <c r="A185" s="3"/>
+      <c r="B185" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C185" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2"/>
-      <c r="B186" s="3" t="s">
+      <c r="C185" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="186" s="1" customFormat="1" spans="1:3">
+      <c r="A186" s="3"/>
+      <c r="B186" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C186" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2"/>
-      <c r="B187" s="3" t="s">
+      <c r="C186" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" s="1" customFormat="1" spans="1:3">
+      <c r="A187" s="3"/>
+      <c r="B187" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C187" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2"/>
-      <c r="B188" s="3" t="s">
+      <c r="C187" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="1" spans="1:3">
+      <c r="A188" s="3"/>
+      <c r="B188" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C188" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2"/>
-      <c r="B189" s="3" t="s">
+      <c r="C188" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="1" spans="1:3">
+      <c r="A189" s="3"/>
+      <c r="B189" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C189" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2"/>
-      <c r="B190" s="3" t="s">
+      <c r="C189" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="1" spans="1:3">
+      <c r="A190" s="3"/>
+      <c r="B190" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C190" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2"/>
-      <c r="B191" s="3" t="s">
+      <c r="C190" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="1" spans="1:3">
+      <c r="A191" s="3"/>
+      <c r="B191" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2"/>
-      <c r="B192" s="3" t="s">
+      <c r="C191" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="1" spans="1:3">
+      <c r="A192" s="3"/>
+      <c r="B192" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="2"/>
-      <c r="B193" s="3" t="s">
+      <c r="C192" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="1" spans="1:3">
+      <c r="A193" s="3"/>
+      <c r="B193" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C193" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="2"/>
-      <c r="B194" s="3" t="s">
+      <c r="C193" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="194" s="1" customFormat="1" spans="1:3">
+      <c r="A194" s="3"/>
+      <c r="B194" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C194" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="2"/>
-      <c r="B195" s="3" t="s">
+      <c r="C194" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="195" s="1" customFormat="1" spans="1:3">
+      <c r="A195" s="3"/>
+      <c r="B195" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C195" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="2"/>
-      <c r="B196" s="3" t="s">
+      <c r="C195" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" s="1" customFormat="1" spans="1:3">
+      <c r="A196" s="3"/>
+      <c r="B196" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C196" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2"/>
-      <c r="B197" s="3" t="s">
+      <c r="C196" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="1" spans="1:3">
+      <c r="A197" s="3"/>
+      <c r="B197" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C197" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="2"/>
-      <c r="B198" s="3" t="s">
+      <c r="C197" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="198" s="1" customFormat="1" spans="1:3">
+      <c r="A198" s="3"/>
+      <c r="B198" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C198" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2"/>
-      <c r="B199" s="3" t="s">
+      <c r="C198" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" s="1" customFormat="1" spans="1:3">
+      <c r="A199" s="3"/>
+      <c r="B199" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C199" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2"/>
-      <c r="B200" s="3" t="s">
+      <c r="C199" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="200" s="1" customFormat="1" spans="1:3">
+      <c r="A200" s="3"/>
+      <c r="B200" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C200" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="3" t="s">
+      <c r="C200" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="1" spans="1:3">
+      <c r="A201" s="3"/>
+      <c r="B201" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C201" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2"/>
-      <c r="B202" s="3" t="s">
+      <c r="C201" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="202" s="1" customFormat="1" spans="1:3">
+      <c r="A202" s="3"/>
+      <c r="B202" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C202" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2"/>
-      <c r="B203" s="3" t="s">
+      <c r="C202" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="203" s="1" customFormat="1" spans="1:3">
+      <c r="A203" s="3"/>
+      <c r="B203" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2"/>
-      <c r="B204" s="3" t="s">
+      <c r="C203" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="204" s="1" customFormat="1" spans="1:3">
+      <c r="A204" s="3"/>
+      <c r="B204" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C204" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2"/>
-      <c r="B205" s="3" t="s">
+      <c r="C204" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="205" s="1" customFormat="1" spans="1:3">
+      <c r="A205" s="3"/>
+      <c r="B205" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C205" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2"/>
-      <c r="B206" s="3" t="s">
+      <c r="C205" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="206" s="1" customFormat="1" spans="1:3">
+      <c r="A206" s="3"/>
+      <c r="B206" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C206" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2"/>
-      <c r="B207" s="3" t="s">
+      <c r="C206" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="207" s="1" customFormat="1" spans="1:3">
+      <c r="A207" s="3"/>
+      <c r="B207" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C207" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2"/>
-      <c r="B208" s="3" t="s">
+      <c r="C207" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208" s="1" customFormat="1" spans="1:3">
+      <c r="A208" s="3"/>
+      <c r="B208" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C208" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2"/>
-      <c r="B209" s="3" t="s">
+      <c r="C208" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" s="1" customFormat="1" spans="1:3">
+      <c r="A209" s="3"/>
+      <c r="B209" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2"/>
-      <c r="B210" s="3" t="s">
+      <c r="C209" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="210" s="1" customFormat="1" spans="1:3">
+      <c r="A210" s="3"/>
+      <c r="B210" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C210" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2"/>
-      <c r="B211" s="3" t="s">
+      <c r="C210" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" spans="1:3">
+      <c r="A211" s="3"/>
+      <c r="B211" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C211" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2"/>
-      <c r="B212" s="3" t="s">
+      <c r="C211" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" spans="1:3">
+      <c r="A212" s="3"/>
+      <c r="B212" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="213" ht="17.6" spans="1:3">
-      <c r="A213" s="4"/>
-      <c r="B213" s="3" t="s">
+      <c r="C212" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A213" s="5"/>
+      <c r="B213" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="214" ht="17.6" spans="1:3">
-      <c r="A214" s="4"/>
-      <c r="B214" s="3" t="s">
+      <c r="C213" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="214" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A214" s="5"/>
+      <c r="B214" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="215" ht="17.6" spans="1:3">
-      <c r="A215" s="4"/>
-      <c r="B215" s="3" t="s">
+      <c r="C214" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="215" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A215" s="5"/>
+      <c r="B215" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C215" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="216" ht="17.6" spans="1:3">
-      <c r="A216" s="4"/>
-      <c r="B216" s="3" t="s">
+      <c r="C215" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A216" s="5"/>
+      <c r="B216" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C216" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" ht="17.6" spans="1:3">
-      <c r="A217" s="4"/>
-      <c r="B217" s="3" t="s">
+      <c r="C216" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="217" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A217" s="5"/>
+      <c r="B217" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="218" ht="17.6" spans="1:3">
-      <c r="A218" s="4"/>
-      <c r="B218" s="3" t="s">
+      <c r="C217" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="218" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A218" s="5"/>
+      <c r="B218" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C218" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="219" ht="17.6" spans="1:3">
-      <c r="A219" s="4"/>
-      <c r="B219" s="3" t="s">
+      <c r="C218" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A219" s="5"/>
+      <c r="B219" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="4" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="220" ht="17.6" spans="1:4">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C220" s="5" t="s">
+      <c r="C220" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="221" ht="17.6" spans="1:4">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C221" s="5" t="s">
+      <c r="C221" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="222" ht="17.6" spans="1:3">
-      <c r="A222" s="6" t="s">
+    <row r="222" ht="17.6" spans="1:4">
+      <c r="A222" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="C222" s="6" t="s">
+      <c r="C222" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="223" ht="17.6" spans="1:3">
-      <c r="A223" s="6" t="s">
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" ht="17.6" spans="1:4">
+      <c r="A223" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C223" s="6" t="s">
+      <c r="C223" s="7" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="224" ht="17.6" spans="1:3">
-      <c r="A224" s="6" t="s">
+      <c r="D223" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" ht="17.6" spans="1:4">
+      <c r="A224" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C224" s="6" t="s">
+      <c r="C224" s="7" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="225" ht="17.6" spans="1:3">
-      <c r="A225" s="6" t="s">
+      <c r="D224" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" ht="17.6" spans="1:4">
+      <c r="A225" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C225" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="226" ht="17.6" spans="1:3">
-      <c r="A226" s="6" t="s">
+      <c r="D225" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" ht="17.6" spans="1:4">
+      <c r="A226" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="C226" s="6" t="s">
+      <c r="C226" s="7" t="s">
         <v>239</v>
       </c>
+      <c r="D226" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="227" ht="17.6" spans="1:4">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C227" s="5" t="s">
+      <c r="C227" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="228" ht="17.6" spans="1:4">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="229" ht="17.6" spans="1:4">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C229" s="5" t="s">
+      <c r="C229" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:3">
-      <c r="A230" s="5" t="s">
+    <row r="230" ht="17.6" spans="1:4">
+      <c r="A230" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C230" s="5" t="s">
+      <c r="C230" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="231" ht="17.6" spans="1:4">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="18" spans="1:3">
-      <c r="A232" s="5" t="s">
+    <row r="232" ht="18" spans="1:4">
+      <c r="A232" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="233" ht="17.6" spans="1:3">
-      <c r="A233" s="5" t="s">
+      <c r="D232" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" ht="17.6" spans="1:4">
+      <c r="A233" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C233" s="5" t="s">
+      <c r="C233" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="234" ht="17.6" spans="1:3">
-      <c r="A234" s="5" t="s">
+      <c r="D233" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" ht="17.6" spans="1:4">
+      <c r="A234" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="6" t="s">
         <v>270</v>
       </c>
+      <c r="D234" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" ht="17.6" spans="1:4">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C235" s="5" t="s">
+      <c r="C235" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="236" ht="17.6" spans="1:4">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="237" ht="17.6" spans="1:4">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C237" s="5" t="s">
+      <c r="C237" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="238" ht="17.6" spans="1:3">
-      <c r="A238" s="5" t="s">
+    <row r="238" ht="17.6" spans="1:4">
+      <c r="A238" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C238" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="239" ht="17.6" spans="1:3">
-      <c r="A239" s="6" t="s">
+      <c r="D238" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" ht="17.6" spans="1:4">
+      <c r="A239" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C239" s="6" t="s">
+      <c r="C239" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="240" ht="17.6" spans="1:3">
-      <c r="A240" s="6" t="s">
+      <c r="D239" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" ht="17.6" spans="1:4">
+      <c r="A240" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="6" t="s">
         <v>281</v>
       </c>
+      <c r="D240" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="241" ht="17.6" spans="1:4">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C241" s="5" t="s">
+      <c r="C241" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="242" ht="17.6" spans="1:4">
-      <c r="A242" s="5"/>
-      <c r="B242" s="5" t="s">
+      <c r="A242" s="6"/>
+      <c r="B242" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C242" s="5" t="s">
+      <c r="C242" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="243" ht="17.6" spans="1:4">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="244" ht="17.6" spans="1:3">
-      <c r="A244" s="5" t="s">
+    <row r="244" ht="17.6" spans="1:4">
+      <c r="A244" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C244" s="6" t="s">
         <v>239</v>
       </c>
+      <c r="D244" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="245" ht="17.6" spans="1:4">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C245" s="5" t="s">
+      <c r="C245" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="18" spans="1:3">
-      <c r="A246" s="5" t="s">
+    <row r="246" ht="18" spans="1:4">
+      <c r="A246" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C246" s="5" t="s">
+      <c r="C246" s="6" t="s">
         <v>287</v>
       </c>
+      <c r="D246" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="247" ht="18" spans="1:4">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C247" s="5" t="s">
+      <c r="C247" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="248" ht="17.6" spans="1:3">
-      <c r="A248" s="5" t="s">
+    <row r="248" ht="17.6" spans="1:4">
+      <c r="A248" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="B248" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="C248" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="249" ht="17.6" spans="1:3">
-      <c r="A249" s="5" t="s">
+      <c r="D248" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" ht="17.6" spans="1:4">
+      <c r="A249" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B249" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C249" s="2" t="s">
         <v>299</v>
+      </c>
+      <c r="D249" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="300">
   <si>
     <t>工号</t>
   </si>
@@ -1958,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="C215" sqref="C215"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -4253,7 +4253,9 @@
       </c>
     </row>
     <row r="242" ht="17.6" spans="1:4">
-      <c r="A242" s="6"/>
+      <c r="A242" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="B242" s="6" t="s">
         <v>284</v>
       </c>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -28,7 +28,7 @@
     <t>特殊</t>
   </si>
   <si>
-    <t>毛健</t>
+    <t>丁勇</t>
   </si>
   <si>
     <t>总经办</t>
@@ -1958,8 +1958,8 @@
   <sheetPr/>
   <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="15.2" outlineLevelCol="3"/>

--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="298">
   <si>
     <t>工号</t>
   </si>
@@ -58,15 +58,12 @@
     <t>工会</t>
   </si>
   <si>
-    <t>石莹</t>
+    <t>马帅</t>
   </si>
   <si>
     <t>人力资源部</t>
   </si>
   <si>
-    <t>马帅</t>
-  </si>
-  <si>
     <t>汪若兰</t>
   </si>
   <si>
@@ -97,13 +94,10 @@
     <t>余佳民</t>
   </si>
   <si>
-    <t>杨海</t>
+    <t>周莹</t>
   </si>
   <si>
     <t>综合管理部</t>
-  </si>
-  <si>
-    <t>周莹</t>
   </si>
   <si>
     <t>宋寅章</t>
@@ -1956,10 +1950,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="15.2" outlineLevelCol="3"/>
@@ -2114,16 +2108,16 @@
         <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
@@ -2132,16 +2126,16 @@
         <v>26</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
@@ -2150,7 +2144,7 @@
         <v>29</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
@@ -2159,7 +2153,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
@@ -2168,7 +2162,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
@@ -2177,7 +2171,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
@@ -2186,7 +2180,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
@@ -2195,7 +2189,7 @@
         <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
@@ -2204,7 +2198,7 @@
         <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
@@ -2213,7 +2207,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
@@ -2222,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
@@ -2231,7 +2225,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
@@ -2240,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
@@ -2249,7 +2243,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
@@ -2258,25 +2252,25 @@
         <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
@@ -2285,7 +2279,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
@@ -2294,7 +2288,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
@@ -2303,7 +2297,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
@@ -2312,25 +2306,25 @@
         <v>48</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
@@ -2339,7 +2333,7 @@
         <v>52</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
@@ -2348,7 +2342,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
@@ -2357,7 +2351,7 @@
         <v>54</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
@@ -2366,7 +2360,7 @@
         <v>55</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
@@ -2375,7 +2369,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
@@ -2384,7 +2378,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
@@ -2393,7 +2387,7 @@
         <v>58</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
@@ -2402,7 +2396,7 @@
         <v>59</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
@@ -2411,25 +2405,25 @@
         <v>60</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
@@ -2438,7 +2432,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
@@ -2447,7 +2441,7 @@
         <v>65</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
@@ -2456,7 +2450,7 @@
         <v>66</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
@@ -2465,7 +2459,7 @@
         <v>67</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
@@ -2474,7 +2468,7 @@
         <v>68</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
@@ -2483,25 +2477,25 @@
         <v>69</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
@@ -2510,7 +2504,7 @@
         <v>73</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
@@ -2519,7 +2513,7 @@
         <v>74</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
@@ -2528,7 +2522,7 @@
         <v>75</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
@@ -2537,7 +2531,7 @@
         <v>76</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
@@ -2546,7 +2540,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
@@ -2555,7 +2549,7 @@
         <v>78</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
@@ -2564,7 +2558,7 @@
         <v>79</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
@@ -2573,7 +2567,7 @@
         <v>80</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
@@ -2582,7 +2576,7 @@
         <v>81</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
@@ -2591,7 +2585,7 @@
         <v>82</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="1" spans="1:3">
@@ -2600,7 +2594,7 @@
         <v>83</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="1" spans="1:3">
@@ -2609,7 +2603,7 @@
         <v>84</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:3">
@@ -2618,7 +2612,7 @@
         <v>85</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
@@ -2627,7 +2621,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
@@ -2636,7 +2630,7 @@
         <v>87</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:3">
@@ -2645,7 +2639,7 @@
         <v>88</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
@@ -2654,7 +2648,7 @@
         <v>89</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
@@ -2663,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
@@ -2672,7 +2666,7 @@
         <v>91</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:3">
@@ -2681,7 +2675,7 @@
         <v>92</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:3">
@@ -2690,7 +2684,7 @@
         <v>93</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" s="1" customFormat="1" spans="1:3">
@@ -2699,7 +2693,7 @@
         <v>94</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" s="1" customFormat="1" spans="1:3">
@@ -2708,7 +2702,7 @@
         <v>95</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
@@ -2717,7 +2711,7 @@
         <v>96</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
@@ -2726,7 +2720,7 @@
         <v>97</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:3">
@@ -2735,7 +2729,7 @@
         <v>98</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
@@ -2744,7 +2738,7 @@
         <v>99</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:3">
@@ -2753,7 +2747,7 @@
         <v>100</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:3">
@@ -2762,7 +2756,7 @@
         <v>101</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="1" spans="1:3">
@@ -2771,7 +2765,7 @@
         <v>102</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="1" spans="1:3">
@@ -2780,7 +2774,7 @@
         <v>103</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="1" spans="1:3">
@@ -2789,7 +2783,7 @@
         <v>104</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="1" spans="1:3">
@@ -2798,7 +2792,7 @@
         <v>105</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="1" spans="1:3">
@@ -2807,7 +2801,7 @@
         <v>106</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="1" spans="1:3">
@@ -2816,7 +2810,7 @@
         <v>107</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="1" spans="1:3">
@@ -2825,7 +2819,7 @@
         <v>108</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="1" spans="1:3">
@@ -2834,7 +2828,7 @@
         <v>109</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="1" spans="1:3">
@@ -2843,25 +2837,25 @@
         <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="1" spans="1:3">
       <c r="A98" s="3"/>
       <c r="B98" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="1" spans="1:3">
       <c r="A99" s="3"/>
       <c r="B99" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="1" spans="1:3">
@@ -2870,7 +2864,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="1" spans="1:3">
@@ -2879,7 +2873,7 @@
         <v>115</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="1" spans="1:3">
@@ -2888,7 +2882,7 @@
         <v>116</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="1" spans="1:3">
@@ -2897,7 +2891,7 @@
         <v>117</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="1" spans="1:3">
@@ -2906,7 +2900,7 @@
         <v>118</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="1" spans="1:3">
@@ -2915,7 +2909,7 @@
         <v>119</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="1" spans="1:3">
@@ -2924,7 +2918,7 @@
         <v>120</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="1" spans="1:3">
@@ -2933,25 +2927,25 @@
         <v>121</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="1" spans="1:3">
       <c r="A108" s="3"/>
       <c r="B108" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="1" spans="1:3">
       <c r="A109" s="3"/>
       <c r="B109" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="1" spans="1:3">
@@ -2960,7 +2954,7 @@
         <v>125</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="1" spans="1:3">
@@ -2969,7 +2963,7 @@
         <v>126</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="1" spans="1:3">
@@ -2978,25 +2972,25 @@
         <v>127</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="1" spans="1:3">
       <c r="A113" s="3"/>
       <c r="B113" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="1" spans="1:3">
       <c r="A114" s="3"/>
       <c r="B114" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="1" spans="1:3">
@@ -3005,7 +2999,7 @@
         <v>131</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="1" spans="1:3">
@@ -3014,7 +3008,7 @@
         <v>132</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="1" spans="1:3">
@@ -3023,7 +3017,7 @@
         <v>133</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="1" spans="1:3">
@@ -3032,7 +3026,7 @@
         <v>134</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" s="1" customFormat="1" spans="1:3">
@@ -3041,7 +3035,7 @@
         <v>135</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="1" spans="1:3">
@@ -3050,7 +3044,7 @@
         <v>136</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="1" spans="1:3">
@@ -3059,7 +3053,7 @@
         <v>137</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="1" spans="1:3">
@@ -3068,7 +3062,7 @@
         <v>138</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="1" spans="1:3">
@@ -3077,7 +3071,7 @@
         <v>139</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="1" spans="1:3">
@@ -3086,16 +3080,16 @@
         <v>140</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="1" spans="1:3">
       <c r="A125" s="3"/>
       <c r="B125" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="1" spans="1:3">
@@ -3104,16 +3098,16 @@
         <v>142</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="1" spans="1:3">
       <c r="A127" s="3"/>
       <c r="B127" s="4" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="1" spans="1:3">
@@ -3122,7 +3116,7 @@
         <v>144</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="1" spans="1:3">
@@ -3131,7 +3125,7 @@
         <v>145</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="1" spans="1:3">
@@ -3140,7 +3134,7 @@
         <v>146</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="1" spans="1:3">
@@ -3149,25 +3143,25 @@
         <v>147</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="1" spans="1:3">
       <c r="A132" s="3"/>
       <c r="B132" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="1" spans="1:3">
       <c r="A133" s="3"/>
       <c r="B133" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="1" spans="1:3">
@@ -3176,7 +3170,7 @@
         <v>151</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="1" spans="1:3">
@@ -3185,7 +3179,7 @@
         <v>152</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="1" spans="1:3">
@@ -3194,7 +3188,7 @@
         <v>153</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="1" spans="1:3">
@@ -3203,7 +3197,7 @@
         <v>154</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="1" spans="1:3">
@@ -3212,7 +3206,7 @@
         <v>155</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="1" spans="1:3">
@@ -3221,7 +3215,7 @@
         <v>156</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="1" spans="1:3">
@@ -3230,7 +3224,7 @@
         <v>157</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="1" spans="1:3">
@@ -3239,7 +3233,7 @@
         <v>158</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="1" spans="1:3">
@@ -3248,7 +3242,7 @@
         <v>159</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="1" spans="1:3">
@@ -3257,7 +3251,7 @@
         <v>160</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="1" spans="1:3">
@@ -3266,7 +3260,7 @@
         <v>161</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="1" spans="1:3">
@@ -3275,7 +3269,7 @@
         <v>162</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="1" spans="1:3">
@@ -3284,7 +3278,7 @@
         <v>163</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="1" spans="1:3">
@@ -3293,7 +3287,7 @@
         <v>164</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="1" spans="1:3">
@@ -3302,7 +3296,7 @@
         <v>165</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="1" spans="1:3">
@@ -3311,7 +3305,7 @@
         <v>166</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="1" spans="1:3">
@@ -3320,7 +3314,7 @@
         <v>167</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="1" spans="1:3">
@@ -3329,7 +3323,7 @@
         <v>168</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="1" spans="1:3">
@@ -3338,7 +3332,7 @@
         <v>169</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="1" spans="1:3">
@@ -3347,7 +3341,7 @@
         <v>170</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="1" spans="1:3">
@@ -3356,7 +3350,7 @@
         <v>171</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="1" spans="1:3">
@@ -3365,7 +3359,7 @@
         <v>172</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="1" spans="1:3">
@@ -3374,7 +3368,7 @@
         <v>173</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="1" spans="1:3">
@@ -3383,7 +3377,7 @@
         <v>174</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="1" spans="1:3">
@@ -3392,7 +3386,7 @@
         <v>175</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="1" spans="1:3">
@@ -3401,7 +3395,7 @@
         <v>176</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="1" spans="1:3">
@@ -3410,7 +3404,7 @@
         <v>177</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="1" spans="1:3">
@@ -3419,7 +3413,7 @@
         <v>178</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="1" spans="1:3">
@@ -3428,7 +3422,7 @@
         <v>179</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="1" spans="1:3">
@@ -3437,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="1" spans="1:3">
@@ -3446,7 +3440,7 @@
         <v>181</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="1" spans="1:3">
@@ -3455,7 +3449,7 @@
         <v>182</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="1" spans="1:3">
@@ -3464,7 +3458,7 @@
         <v>183</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="1" spans="1:3">
@@ -3473,7 +3467,7 @@
         <v>184</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="1" spans="1:3">
@@ -3482,7 +3476,7 @@
         <v>185</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="1" spans="1:3">
@@ -3491,7 +3485,7 @@
         <v>186</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="1" spans="1:3">
@@ -3500,7 +3494,7 @@
         <v>187</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="1" spans="1:3">
@@ -3509,7 +3503,7 @@
         <v>188</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="1" spans="1:3">
@@ -3518,7 +3512,7 @@
         <v>189</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="1" spans="1:3">
@@ -3527,7 +3521,7 @@
         <v>190</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="1" spans="1:3">
@@ -3536,7 +3530,7 @@
         <v>191</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="1" spans="1:3">
@@ -3545,7 +3539,7 @@
         <v>192</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="1" spans="1:3">
@@ -3554,7 +3548,7 @@
         <v>193</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="1" spans="1:3">
@@ -3563,7 +3557,7 @@
         <v>194</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="1" spans="1:3">
@@ -3572,7 +3566,7 @@
         <v>195</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="1" spans="1:3">
@@ -3581,7 +3575,7 @@
         <v>196</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="1" spans="1:3">
@@ -3590,7 +3584,7 @@
         <v>197</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="1" spans="1:3">
@@ -3599,7 +3593,7 @@
         <v>198</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="1" spans="1:3">
@@ -3608,7 +3602,7 @@
         <v>199</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" spans="1:3">
@@ -3617,7 +3611,7 @@
         <v>200</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="1" spans="1:3">
@@ -3626,7 +3620,7 @@
         <v>201</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="1" spans="1:3">
@@ -3635,7 +3629,7 @@
         <v>202</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="1" spans="1:3">
@@ -3644,7 +3638,7 @@
         <v>203</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="1" spans="1:3">
@@ -3653,7 +3647,7 @@
         <v>204</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="1" spans="1:3">
@@ -3662,7 +3656,7 @@
         <v>205</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="1" spans="1:3">
@@ -3671,7 +3665,7 @@
         <v>206</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="1" spans="1:3">
@@ -3680,7 +3674,7 @@
         <v>207</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="1" spans="1:3">
@@ -3689,7 +3683,7 @@
         <v>208</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="1" spans="1:3">
@@ -3698,7 +3692,7 @@
         <v>209</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="1" spans="1:3">
@@ -3707,7 +3701,7 @@
         <v>210</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="1" spans="1:3">
@@ -3716,7 +3710,7 @@
         <v>211</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="1" spans="1:3">
@@ -3725,7 +3719,7 @@
         <v>212</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="1" spans="1:3">
@@ -3734,7 +3728,7 @@
         <v>213</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="1" spans="1:3">
@@ -3743,7 +3737,7 @@
         <v>214</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="1" spans="1:3">
@@ -3752,7 +3746,7 @@
         <v>215</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="1" spans="1:3">
@@ -3761,7 +3755,7 @@
         <v>216</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="1" spans="1:3">
@@ -3770,7 +3764,7 @@
         <v>217</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="1" spans="1:3">
@@ -3779,7 +3773,7 @@
         <v>218</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="1" spans="1:3">
@@ -3788,7 +3782,7 @@
         <v>219</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="1" spans="1:3">
@@ -3797,7 +3791,7 @@
         <v>220</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="1" spans="1:3">
@@ -3806,7 +3800,7 @@
         <v>221</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="1" spans="1:3">
@@ -3815,7 +3809,7 @@
         <v>222</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="1" spans="1:3">
@@ -3824,7 +3818,7 @@
         <v>223</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="1" spans="1:3">
@@ -3833,7 +3827,7 @@
         <v>224</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="1" spans="1:3">
@@ -3842,7 +3836,7 @@
         <v>225</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="209" s="1" customFormat="1" spans="1:3">
@@ -3851,7 +3845,7 @@
         <v>226</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="210" s="1" customFormat="1" spans="1:3">
@@ -3860,25 +3854,25 @@
         <v>227</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="211" s="1" customFormat="1" spans="1:3">
-      <c r="A211" s="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A211" s="5"/>
       <c r="B211" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="212" s="1" customFormat="1" spans="1:3">
-      <c r="A212" s="3"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" s="1" customFormat="1" ht="17.6" spans="1:3">
+      <c r="A212" s="5"/>
       <c r="B212" s="4" t="s">
         <v>229</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="213" s="1" customFormat="1" ht="17.6" spans="1:3">
@@ -3887,7 +3881,7 @@
         <v>230</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="214" s="1" customFormat="1" ht="17.6" spans="1:3">
@@ -3896,7 +3890,7 @@
         <v>231</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="215" s="1" customFormat="1" ht="17.6" spans="1:3">
@@ -3905,7 +3899,7 @@
         <v>232</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="216" s="1" customFormat="1" ht="17.6" spans="1:3">
@@ -3914,7 +3908,7 @@
         <v>233</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="217" s="1" customFormat="1" ht="17.6" spans="1:3">
@@ -3923,64 +3917,74 @@
         <v>234</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="218" s="1" customFormat="1" ht="17.6" spans="1:3">
-      <c r="A218" s="5"/>
-      <c r="B218" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" ht="17.6" spans="1:4">
+      <c r="A218" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="219" s="1" customFormat="1" ht="17.6" spans="1:3">
-      <c r="A219" s="5"/>
-      <c r="B219" s="4" t="s">
+      <c r="B218" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C219" s="4" t="s">
-        <v>150</v>
+      <c r="C218" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D218" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" ht="17.6" spans="1:4">
+      <c r="A219" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="220" ht="17.6" spans="1:4">
-      <c r="A220" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>239</v>
+      <c r="A220" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="D220" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" ht="17.6" spans="1:4">
-      <c r="A221" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B221" s="6" t="s">
+      <c r="A221" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>242</v>
+      <c r="B221" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="D221" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" ht="17.6" spans="1:4">
       <c r="A222" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D222" s="2">
         <v>0</v>
@@ -3988,13 +3992,13 @@
     </row>
     <row r="223" ht="17.6" spans="1:4">
       <c r="A223" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D223" s="2">
         <v>0</v>
@@ -4002,55 +4006,55 @@
     </row>
     <row r="224" ht="17.6" spans="1:4">
       <c r="A224" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D224" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="225" ht="17.6" spans="1:4">
-      <c r="A225" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>252</v>
+      <c r="A225" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="D225" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" ht="17.6" spans="1:4">
-      <c r="A226" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B226" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C226" s="7" t="s">
-        <v>239</v>
+      <c r="A226" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>237</v>
       </c>
       <c r="D226" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" ht="17.6" spans="1:4">
       <c r="A227" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D227" s="2">
         <v>1</v>
@@ -4061,38 +4065,38 @@
         <v>257</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D228" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" ht="17.6" spans="1:4">
       <c r="A229" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D229" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="17.6" spans="1:4">
+    <row r="230" ht="18" spans="1:4">
       <c r="A230" s="6" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>239</v>
+        <v>263</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D230" s="2">
         <v>0</v>
@@ -4103,24 +4107,24 @@
         <v>262</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="D231" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" ht="18" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" ht="17.6" spans="1:4">
       <c r="A232" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>268</v>
       </c>
       <c r="D232" s="2">
         <v>0</v>
@@ -4128,41 +4132,41 @@
     </row>
     <row r="233" ht="17.6" spans="1:4">
       <c r="A233" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" ht="17.6" spans="1:4">
       <c r="A234" s="6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="D234" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" ht="17.6" spans="1:4">
       <c r="A235" s="6" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D235" s="2">
         <v>1</v>
@@ -4172,81 +4176,81 @@
       <c r="A236" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B236" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C236" s="6" t="s">
-        <v>239</v>
+      <c r="B236" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="D236" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" ht="17.6" spans="1:4">
-      <c r="A237" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B237" s="6" t="s">
+      <c r="A237" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>239</v>
+      <c r="B237" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="D237" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" ht="17.6" spans="1:4">
-      <c r="A238" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B238" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C238" s="7" t="s">
-        <v>252</v>
+      <c r="A238" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>279</v>
       </c>
       <c r="D238" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="239" ht="17.6" spans="1:4">
-      <c r="A239" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B239" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C239" s="7" t="s">
+      <c r="A239" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C239" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" ht="17.6" spans="1:4">
+      <c r="A240" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D239" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" ht="17.6" spans="1:4">
-      <c r="A240" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B240" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C240" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D240" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" ht="17.6" spans="1:4">
       <c r="A241" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="D241" s="2">
         <v>1</v>
@@ -4254,143 +4258,115 @@
     </row>
     <row r="242" ht="17.6" spans="1:4">
       <c r="A242" s="6" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="D242" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" ht="17.6" spans="1:4">
       <c r="A243" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D243" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="244" ht="17.6" spans="1:4">
+    <row r="244" ht="18" spans="1:4">
       <c r="A244" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B244" s="6" t="s">
-        <v>289</v>
+      <c r="B244" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
       <c r="D244" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="17.6" spans="1:4">
+    <row r="245" ht="18" spans="1:4">
       <c r="A245" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="D245" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="246" ht="18" spans="1:4">
+    <row r="246" ht="17.6" spans="1:4">
       <c r="A246" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B246" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>287</v>
+        <v>292</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D246" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="247" ht="18" spans="1:4">
+    <row r="247" ht="17.6" spans="1:4">
       <c r="A247" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B247" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>239</v>
+        <v>292</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D247" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" ht="17.6" spans="1:4">
-      <c r="A248" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D248" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="249" ht="17.6" spans="1:4">
-      <c r="A249" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D249" s="2">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B34">
+  <conditionalFormatting sqref="B32">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
+  <conditionalFormatting sqref="B38">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B196">
+  <conditionalFormatting sqref="B194">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C196">
+  <conditionalFormatting sqref="C194">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B204">
+  <conditionalFormatting sqref="B202">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C204">
+  <conditionalFormatting sqref="C202">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B214">
+  <conditionalFormatting sqref="B212">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C214">
+  <conditionalFormatting sqref="C212">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34 C39 C34:C38"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32 C37 C32:C36"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
